--- a/src/main/resources/1.xlsx
+++ b/src/main/resources/1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bill/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bill/Desktop/work/idea/lit_ticket/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>jack</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,10 @@
     <rPh sb="0" eb="1">
       <t>ming'zi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rrr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -425,10 +429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,6 +459,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/1.xlsx
+++ b/src/main/resources/1.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,52 +27,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>jack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <rPh sb="0" eb="1">
-      <t>shu'zi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
-      <t>xing'ming</t>
+      <t>xing'm</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年龄</t>
+    <t>zhangsan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lisi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangwu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚刚</t>
     <rPh sb="0" eb="1">
-      <t>nian'ling</t>
+      <t>g'g</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i序号</t>
-    <rPh sb="1" eb="2">
-      <t>xu'hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <rPh sb="0" eb="1">
-      <t>ming'zi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rrr</t>
+    <t>gfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201708</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201709</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201710</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,6 +83,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -118,8 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -397,77 +403,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>12</v>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>6</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>55</v>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
